--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaela\universidad\SSII 2\Prácticas Sistemas de la Información 2\Sistemas_2_p2\src\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvi\OneDrive\Escritorio\Universidad de León\Tercero\Segundo cuatri\Sistemas de Información II\Practica 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B73848B-5243-4BC7-899B-BAF75980D48E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954A47A-7846-4B25-B62B-01E7E8BFE7CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="485">
   <si>
     <t>Nombre</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Presa</t>
   </si>
   <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
     <t>71425232C</t>
   </si>
   <si>
@@ -601,6 +598,9 @@
     <t>Castrillo</t>
   </si>
   <si>
+    <t>09611071S</t>
+  </si>
+  <si>
     <t>Diana</t>
   </si>
   <si>
@@ -1484,147 +1484,6 @@
   </si>
   <si>
     <t>99558741836555551120</t>
-  </si>
-  <si>
-    <t>09611071S</t>
-  </si>
-  <si>
-    <t>209600431143554600000</t>
-  </si>
-  <si>
-    <t>321454641038452163421</t>
-  </si>
-  <si>
-    <t>325695231116220165156</t>
-  </si>
-  <si>
-    <t>201250033115201112544</t>
-  </si>
-  <si>
-    <t>232154653105456411515</t>
-  </si>
-  <si>
-    <t>215849769112154655487</t>
-  </si>
-  <si>
-    <t>9643124510108150005156</t>
-  </si>
-  <si>
-    <t>250300001014574745458</t>
-  </si>
-  <si>
-    <t>159536848101254695203</t>
-  </si>
-  <si>
-    <t>209600431123096200000</t>
-  </si>
-  <si>
-    <t>209600431132159000000</t>
-  </si>
-  <si>
-    <t>126696811105112121210</t>
-  </si>
-  <si>
-    <t>255168481121156151054</t>
-  </si>
-  <si>
-    <t>666494441062310000255</t>
-  </si>
-  <si>
-    <t>362500128114785523365</t>
-  </si>
-  <si>
-    <t>225156519105640081000</t>
-  </si>
-  <si>
-    <t>213461545113164978451</t>
-  </si>
-  <si>
-    <t>245879461132003165464</t>
-  </si>
-  <si>
-    <t>209600431173071400000</t>
-  </si>
-  <si>
-    <t>209600431142158800000</t>
-  </si>
-  <si>
-    <t>665522111048855332200</t>
-  </si>
-  <si>
-    <t>209600431143075700000</t>
-  </si>
-  <si>
-    <t>516514879100005118185</t>
-  </si>
-  <si>
-    <t>018265301020201560000</t>
-  </si>
-  <si>
-    <t>209600431133000100000</t>
-  </si>
-  <si>
-    <t>316245611142546920007</t>
-  </si>
-  <si>
-    <t>361542317102500312566</t>
-  </si>
-  <si>
-    <t>448756641027231645789</t>
-  </si>
-  <si>
-    <t>625815427103690044508</t>
-  </si>
-  <si>
-    <t>369523651120014425254</t>
-  </si>
-  <si>
-    <t>214163258101510005514</t>
-  </si>
-  <si>
-    <t>326284845114115151115</t>
-  </si>
-  <si>
-    <t>20960056133231500000</t>
-  </si>
-  <si>
-    <t>23658965274585223202</t>
-  </si>
-  <si>
-    <t>236523651042254222000</t>
-  </si>
-  <si>
-    <t>200125411050023365233</t>
-  </si>
-  <si>
-    <t>362459781033245679001</t>
-  </si>
-  <si>
-    <t>325745121185411002255</t>
-  </si>
-  <si>
-    <t>2096004311103468900000</t>
-  </si>
-  <si>
-    <t>651656549108886005001</t>
-  </si>
-  <si>
-    <t>51556584221251000254</t>
-  </si>
-  <si>
-    <t>62541122421110105611</t>
-  </si>
-  <si>
-    <t>65645150865168448896</t>
-  </si>
-  <si>
-    <t>265516818117651415636</t>
-  </si>
-  <si>
-    <t>111122235114444444444</t>
-  </si>
-  <si>
-    <t>11112223504444444444</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1491,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1661,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1673,6 +1540,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2041,25 +1911,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7265625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.7265625" collapsed="true"/>
-    <col min="8" max="8" style="2" width="11.54296875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7265625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="28.81640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.26953125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="7.54296875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="8" max="8" style="2" width="11.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="5" width="28.88671875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="7.5546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +1970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2123,7 +1993,7 @@
         <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
@@ -2133,7 +2003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>381</v>
       </c>
@@ -2159,7 +2029,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>531</v>
+        <v>388</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -2169,7 +2039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -2194,8 +2064,8 @@
       <c r="H4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>531</v>
+      <c r="J4" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="K4" t="s">
         <v>90</v>
@@ -2205,7 +2075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>387</v>
       </c>
@@ -2219,19 +2089,19 @@
         <v>40513</v>
       </c>
       <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
         <v>187</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>188</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="J5" s="5" t="s">
-        <v>531</v>
+        <v>390</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -2241,7 +2111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2258,7 +2128,7 @@
         <v>236</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
         <v>237</v>
@@ -2267,7 +2137,7 @@
         <v>238</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>531</v>
+        <v>391</v>
       </c>
       <c r="K6" t="s">
         <v>374</v>
@@ -2277,7 +2147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>381</v>
       </c>
@@ -2303,7 +2173,7 @@
         <v>355</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>531</v>
+        <v>392</v>
       </c>
       <c r="K7" t="s">
         <v>86</v>
@@ -2313,7 +2183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2333,13 +2203,13 @@
         <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>250</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>531</v>
+        <v>393</v>
       </c>
       <c r="K8" t="s">
         <v>367</v>
@@ -2349,11 +2219,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -2367,19 +2237,19 @@
         <v>40391</v>
       </c>
       <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" t="s">
         <v>165</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>166</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>531</v>
+        <v>394</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
@@ -2389,7 +2259,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -2406,7 +2276,7 @@
         <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
         <v>241</v>
@@ -2415,7 +2285,7 @@
         <v>279</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>531</v>
+        <v>395</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
@@ -2425,7 +2295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>381</v>
       </c>
@@ -2451,7 +2321,7 @@
         <v>396</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>89</v>
@@ -2461,7 +2331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>381</v>
       </c>
@@ -2487,7 +2357,7 @@
         <v>396</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>531</v>
+        <v>397</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
@@ -2497,7 +2367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>385</v>
       </c>
@@ -2523,7 +2393,7 @@
         <v>286</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>531</v>
+        <v>398</v>
       </c>
       <c r="K14" t="s">
         <v>371</v>
@@ -2533,7 +2403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>385</v>
       </c>
@@ -2559,7 +2429,7 @@
         <v>267</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>531</v>
+        <v>399</v>
       </c>
       <c r="K15" t="s">
         <v>377</v>
@@ -2569,7 +2439,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -2592,7 +2462,7 @@
         <v>359</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="K16" t="s">
         <v>88</v>
@@ -2602,7 +2472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>381</v>
       </c>
@@ -2628,7 +2498,7 @@
         <v>359</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>531</v>
+        <v>401</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
@@ -2638,7 +2508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>383</v>
       </c>
@@ -2664,7 +2534,7 @@
         <v>330</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>531</v>
+        <v>402</v>
       </c>
       <c r="K18" t="s">
         <v>376</v>
@@ -2674,7 +2544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -2700,7 +2570,7 @@
         <v>317</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>531</v>
+        <v>403</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
@@ -2710,7 +2580,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>383</v>
       </c>
@@ -2727,7 +2597,7 @@
         <v>326</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>39</v>
@@ -2736,7 +2606,7 @@
         <v>327</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="K20" t="s">
         <v>368</v>
@@ -2746,7 +2616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>383</v>
       </c>
@@ -2772,7 +2642,7 @@
         <v>313</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>531</v>
+        <v>405</v>
       </c>
       <c r="K21" t="s">
         <v>370</v>
@@ -2782,7 +2652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>381</v>
       </c>
@@ -2808,7 +2678,7 @@
         <v>43</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>531</v>
+        <v>406</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -2818,7 +2688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -2841,7 +2711,7 @@
         <v>407</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>531</v>
+        <v>400</v>
       </c>
       <c r="K23" t="s">
         <v>90</v>
@@ -2851,7 +2721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2747,7 @@
         <v>407</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>531</v>
+        <v>408</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -2887,7 +2757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -2910,7 +2780,7 @@
         <v>64</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
         <v>87</v>
@@ -2920,7 +2790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2946,7 +2816,7 @@
         <v>409</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -2956,7 +2826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -2982,7 +2852,7 @@
         <v>198</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="K27" t="s">
         <v>86</v>
@@ -2992,11 +2862,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28" s="1"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>381</v>
       </c>
@@ -3022,7 +2892,7 @@
         <v>300</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>531</v>
+        <v>412</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -3032,7 +2902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -3046,19 +2916,19 @@
         <v>40603</v>
       </c>
       <c r="E30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" t="s">
         <v>183</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>184</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="J30" s="5" t="s">
-        <v>531</v>
+        <v>413</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -3068,7 +2938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>383</v>
       </c>
@@ -3094,7 +2964,7 @@
         <v>321</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>531</v>
+        <v>414</v>
       </c>
       <c r="K31" t="s">
         <v>380</v>
@@ -3104,7 +2974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -3130,7 +3000,7 @@
         <v>325</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>531</v>
+        <v>415</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -3140,7 +3010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -3166,7 +3036,7 @@
         <v>334</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -3176,7 +3046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3072,7 @@
         <v>270</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>531</v>
+        <v>417</v>
       </c>
       <c r="K34" t="s">
         <v>378</v>
@@ -3212,7 +3082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3238,7 +3108,7 @@
         <v>217</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>531</v>
+        <v>418</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -3248,7 +3118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>385</v>
       </c>
@@ -3274,7 +3144,7 @@
         <v>235</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>531</v>
+        <v>419</v>
       </c>
       <c r="K36" t="s">
         <v>373</v>
@@ -3284,7 +3154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>387</v>
       </c>
@@ -3310,7 +3180,7 @@
         <v>210</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>531</v>
+        <v>420</v>
       </c>
       <c r="K37" t="s">
         <v>368</v>
@@ -3320,7 +3190,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>383</v>
       </c>
@@ -3346,7 +3216,7 @@
         <v>350</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>531</v>
+        <v>421</v>
       </c>
       <c r="K38" t="s">
         <v>86</v>
@@ -3356,7 +3226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3382,7 +3252,7 @@
         <v>422</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>531</v>
+        <v>423</v>
       </c>
       <c r="K39" t="s">
         <v>86</v>
@@ -3392,7 +3262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>383</v>
       </c>
@@ -3418,7 +3288,7 @@
         <v>337</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>531</v>
+        <v>424</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
@@ -3428,7 +3298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>381</v>
       </c>
@@ -3454,7 +3324,7 @@
         <v>341</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>531</v>
+        <v>425</v>
       </c>
       <c r="K41" t="s">
         <v>85</v>
@@ -3464,7 +3334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>381</v>
       </c>
@@ -3490,7 +3360,7 @@
         <v>126</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
@@ -3500,7 +3370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>383</v>
       </c>
@@ -3526,7 +3396,7 @@
         <v>344</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>531</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
         <v>85</v>
@@ -3536,7 +3406,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>381</v>
       </c>
@@ -3562,7 +3432,7 @@
         <v>348</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>531</v>
+        <v>428</v>
       </c>
       <c r="K44" t="s">
         <v>89</v>
@@ -3572,7 +3442,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -3598,7 +3468,7 @@
         <v>429</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>531</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
@@ -3608,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>381</v>
       </c>
@@ -3634,7 +3504,7 @@
         <v>42</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>531</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
@@ -3644,7 +3514,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -3658,19 +3528,19 @@
         <v>42767</v>
       </c>
       <c r="E47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
         <v>179</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>180</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="J47" s="5" t="s">
-        <v>531</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
@@ -3680,7 +3550,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>387</v>
       </c>
@@ -3706,7 +3576,7 @@
         <v>141</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>531</v>
+        <v>433</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
@@ -3716,7 +3586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3742,7 +3612,7 @@
         <v>246</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>531</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -3752,7 +3622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -3775,7 +3645,7 @@
         <v>435</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>531</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s">
         <v>91</v>
@@ -3785,7 +3655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>387</v>
       </c>
@@ -3808,7 +3678,7 @@
         <v>436</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
         <v>86</v>
@@ -3818,7 +3688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -3844,7 +3714,7 @@
         <v>137</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>531</v>
+        <v>438</v>
       </c>
       <c r="K52" t="s">
         <v>86</v>
@@ -3854,7 +3724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3880,7 +3750,7 @@
         <v>439</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>531</v>
+        <v>440</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
@@ -3890,7 +3760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3916,7 +3786,7 @@
         <v>248</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="K54" t="s">
         <v>376</v>
@@ -3926,7 +3796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>385</v>
       </c>
@@ -3952,7 +3822,7 @@
         <v>192</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>531</v>
+        <v>442</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
@@ -3962,7 +3832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -3988,7 +3858,7 @@
         <v>207</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>531</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
         <v>87</v>
@@ -3998,7 +3868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -4012,7 +3882,7 @@
         <v>40969</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" t="s">
         <v>27</v>
@@ -4021,10 +3891,10 @@
         <v>140</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>531</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
         <v>91</v>
@@ -4034,7 +3904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4060,7 +3930,7 @@
         <v>277</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>531</v>
+        <v>445</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
@@ -4070,11 +3940,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D59" s="1"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -4100,7 +3970,7 @@
         <v>446</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s">
         <v>85</v>
@@ -4110,7 +3980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>387</v>
       </c>
@@ -4136,7 +4006,7 @@
         <v>194</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
@@ -4146,7 +4016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>381</v>
       </c>
@@ -4172,7 +4042,7 @@
         <v>69</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
@@ -4182,7 +4052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -4208,7 +4078,7 @@
         <v>204</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>531</v>
+        <v>449</v>
       </c>
       <c r="K63" t="s">
         <v>91</v>
@@ -4218,7 +4088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -4244,7 +4114,7 @@
         <v>122</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>531</v>
+        <v>450</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
@@ -4254,7 +4124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4280,7 +4150,7 @@
         <v>221</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
@@ -4290,7 +4160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>385</v>
       </c>
@@ -4316,7 +4186,7 @@
         <v>152</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>531</v>
+        <v>452</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
@@ -4326,7 +4196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>381</v>
       </c>
@@ -4352,7 +4222,7 @@
         <v>358</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>531</v>
+        <v>453</v>
       </c>
       <c r="K67" t="s">
         <v>85</v>
@@ -4362,7 +4232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -4388,7 +4258,7 @@
         <v>435</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>531</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s">
         <v>85</v>
@@ -4398,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>383</v>
       </c>
@@ -4424,7 +4294,7 @@
         <v>454</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
@@ -4434,7 +4304,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>385</v>
       </c>
@@ -4460,7 +4330,7 @@
         <v>252</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>531</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
         <v>85</v>
@@ -4470,7 +4340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>387</v>
       </c>
@@ -4484,19 +4354,19 @@
         <v>40513</v>
       </c>
       <c r="E71" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" t="s">
         <v>161</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>162</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="J71" s="5" t="s">
-        <v>531</v>
+        <v>457</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
@@ -4506,7 +4376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>383</v>
       </c>
@@ -4532,7 +4402,7 @@
         <v>283</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>531</v>
+        <v>458</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
@@ -4542,7 +4412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>381</v>
       </c>
@@ -4568,7 +4438,7 @@
         <v>422</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>531</v>
+        <v>448</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
@@ -4578,7 +4448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>381</v>
       </c>
@@ -4604,7 +4474,7 @@
         <v>304</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="K74" t="s">
         <v>380</v>
@@ -4614,7 +4484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>385</v>
       </c>
@@ -4640,7 +4510,7 @@
         <v>297</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
@@ -4650,7 +4520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>381</v>
       </c>
@@ -4676,7 +4546,7 @@
         <v>69</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
@@ -4686,7 +4556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>385</v>
       </c>
@@ -4712,7 +4582,7 @@
         <v>254</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>531</v>
+        <v>462</v>
       </c>
       <c r="K77" t="s">
         <v>85</v>
@@ -4722,7 +4592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4748,7 +4618,7 @@
         <v>232</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="K78" t="s">
         <v>372</v>
@@ -4758,11 +4628,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D79" s="1"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -4786,7 +4656,7 @@
       </c>
       <c r="H80" s="3"/>
       <c r="J80" s="5" t="s">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="K80" t="s">
         <v>85</v>
@@ -4795,7 +4665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>385</v>
       </c>
@@ -4809,19 +4679,19 @@
         <v>42186</v>
       </c>
       <c r="E81" t="s">
+        <v>170</v>
+      </c>
+      <c r="F81" t="s">
         <v>171</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>172</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="J81" s="5" t="s">
-        <v>531</v>
+        <v>464</v>
       </c>
       <c r="K81" t="s">
         <v>85</v>
@@ -4831,7 +4701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -4857,7 +4727,7 @@
         <v>310</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>531</v>
+        <v>366</v>
       </c>
       <c r="K82" t="s">
         <v>85</v>
@@ -4866,7 +4736,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>387</v>
       </c>
@@ -4892,7 +4762,7 @@
         <v>130</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
       <c r="K83" t="s">
         <v>89</v>
@@ -4902,7 +4772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>385</v>
       </c>
@@ -4928,7 +4798,7 @@
         <v>294</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>531</v>
+        <v>466</v>
       </c>
       <c r="K84" t="s">
         <v>85</v>
@@ -4938,7 +4808,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>383</v>
       </c>
@@ -4961,7 +4831,7 @@
         <v>291</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>531</v>
+        <v>365</v>
       </c>
       <c r="K85" t="s">
         <v>378</v>
@@ -4970,7 +4840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -4996,7 +4866,7 @@
         <v>256</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>531</v>
+        <v>467</v>
       </c>
       <c r="K86" t="s">
         <v>85</v>
@@ -5006,7 +4876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -5032,7 +4902,7 @@
         <v>145</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="K87" t="s">
         <v>85</v>
@@ -5042,7 +4912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -5068,7 +4938,7 @@
         <v>148</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="K88" t="s">
         <v>85</v>
@@ -5078,7 +4948,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +4974,7 @@
         <v>259</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>531</v>
+        <v>470</v>
       </c>
       <c r="K89" t="s">
         <v>371</v>
@@ -5114,7 +4984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>387</v>
       </c>
@@ -5134,13 +5004,13 @@
         <v>154</v>
       </c>
       <c r="G90" t="s">
+        <v>165</v>
+      </c>
+      <c r="H90" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J90" s="5" t="s">
-        <v>531</v>
+        <v>471</v>
       </c>
       <c r="K90" t="s">
         <v>85</v>
@@ -5150,7 +5020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>387</v>
       </c>
@@ -5176,7 +5046,7 @@
         <v>118</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>531</v>
+        <v>472</v>
       </c>
       <c r="K91" t="s">
         <v>85</v>
@@ -5186,7 +5056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -5212,7 +5082,7 @@
         <v>288</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="K92" t="s">
         <v>376</v>
@@ -5222,7 +5092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5248,7 +5118,7 @@
         <v>242</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>531</v>
+        <v>474</v>
       </c>
       <c r="K93" t="s">
         <v>375</v>
@@ -5258,7 +5128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -5284,7 +5154,7 @@
         <v>44</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
       <c r="K94" t="s">
         <v>85</v>
@@ -5294,7 +5164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5320,7 +5190,7 @@
         <v>476</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>531</v>
+        <v>477</v>
       </c>
       <c r="K95" t="s">
         <v>85</v>
@@ -5330,7 +5200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5347,7 +5217,7 @@
         <v>260</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -5356,7 +5226,7 @@
         <v>478</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="K96" t="s">
         <v>368</v>
@@ -5366,7 +5236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>385</v>
       </c>
@@ -5380,19 +5250,19 @@
         <v>40299</v>
       </c>
       <c r="E97" t="s">
+        <v>174</v>
+      </c>
+      <c r="F97" t="s">
         <v>175</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>176</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="J97" s="5" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="K97" t="s">
         <v>85</v>
@@ -5402,7 +5272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>387</v>
       </c>
@@ -5416,19 +5286,19 @@
         <v>39295</v>
       </c>
       <c r="E98" t="s">
+        <v>156</v>
+      </c>
+      <c r="F98" t="s">
         <v>157</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>158</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="J98" s="5" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="K98" t="s">
         <v>85</v>
@@ -5438,7 +5308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>387</v>
       </c>
@@ -5464,7 +5334,7 @@
         <v>115</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="K99" t="s">
         <v>85</v>
@@ -5474,11 +5344,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D100" s="1"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>387</v>
       </c>
@@ -5504,7 +5374,7 @@
         <v>213</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>531</v>
+        <v>361</v>
       </c>
       <c r="K101" t="s">
         <v>369</v>
@@ -5513,7 +5383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>387</v>
       </c>
@@ -5539,7 +5409,7 @@
         <v>201</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="K102" t="s">
         <v>90</v>
@@ -5549,7 +5419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -5575,7 +5445,7 @@
         <v>228</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>531</v>
+        <v>363</v>
       </c>
       <c r="K103" t="s">
         <v>371</v>
@@ -5584,7 +5454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>385</v>
       </c>
@@ -5610,7 +5480,7 @@
         <v>264</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>531</v>
+        <v>364</v>
       </c>
       <c r="K104" t="s">
         <v>368</v>
@@ -5619,7 +5489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5645,7 +5515,7 @@
         <v>225</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>531</v>
+        <v>362</v>
       </c>
       <c r="K105" t="s">
         <v>370</v>
@@ -5654,7 +5524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5691,11 +5561,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F2:L106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:L106">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5712,16 +5582,16 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.453125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.1796875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.26953125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5732,7 +5602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5743,7 +5613,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5754,7 +5624,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5765,7 +5635,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5776,7 +5646,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5787,7 +5657,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5798,7 +5668,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5809,7 +5679,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5820,7 +5690,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5831,7 +5701,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -5842,7 +5712,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5853,7 +5723,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5864,7 +5734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5875,7 +5745,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5899,12 +5769,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.54296875" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5912,7 +5782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -5920,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -5928,7 +5798,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -5936,7 +5806,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -5944,7 +5814,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -5952,7 +5822,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -5960,7 +5830,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -5968,7 +5838,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -5976,7 +5846,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -5984,7 +5854,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -5992,7 +5862,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -6000,7 +5870,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -6008,7 +5878,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -6016,7 +5886,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -6024,7 +5894,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -6032,7 +5902,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -6040,7 +5910,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -6048,7 +5918,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -6056,7 +5926,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -6064,7 +5934,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -6072,7 +5942,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -6080,7 +5950,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -6088,7 +5958,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -6096,7 +5966,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -6104,7 +5974,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -6112,7 +5982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -6120,7 +5990,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -6128,7 +5998,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -6136,7 +6006,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -6144,7 +6014,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -6152,7 +6022,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -6160,7 +6030,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -6168,7 +6038,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -6176,7 +6046,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -6184,7 +6054,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -6192,7 +6062,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -6200,7 +6070,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -6208,7 +6078,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -6216,7 +6086,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -6224,7 +6094,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -6232,7 +6102,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -6240,7 +6110,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -6248,7 +6118,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -6256,7 +6126,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -6264,7 +6134,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -6272,7 +6142,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -6280,7 +6150,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -6288,7 +6158,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -6296,7 +6166,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -6317,13 +6187,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.453125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.26953125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -6331,7 +6201,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -6339,7 +6209,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -6347,7 +6217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -6355,7 +6225,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -6363,7 +6233,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6371,7 +6241,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -6379,7 +6249,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -6400,13 +6270,13 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.81640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -6414,7 +6284,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6422,7 +6292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6430,7 +6300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6438,7 +6308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6446,7 +6316,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6454,7 +6324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6462,7 +6332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6470,7 +6340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6478,7 +6348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6486,7 +6356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6494,7 +6364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6502,7 +6372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6510,7 +6380,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6518,7 +6388,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6526,7 +6396,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6534,7 +6404,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6542,7 +6412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6550,7 +6420,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20357"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvi\OneDrive\Escritorio\Universidad de León\Tercero\Segundo cuatri\Sistemas de Información II\Practica 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\NetBeansProjects\Nominas2020\resources\original 2020\practica 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3954A47A-7846-4B25-B62B-01E7E8BFE7CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3860E0B4-8753-4E99-8361-EADC3FC2FC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="691">
   <si>
     <t>Nombre</t>
   </si>
@@ -1484,6 +1484,624 @@
   </si>
   <si>
     <t>99558741836555551120</t>
+  </si>
+  <si>
+    <t>20960056133231500000</t>
+  </si>
+  <si>
+    <t>23658965274585223202</t>
+  </si>
+  <si>
+    <t>20012541150023365233</t>
+  </si>
+  <si>
+    <t>51556584221251000254</t>
+  </si>
+  <si>
+    <t>62541122421110105611</t>
+  </si>
+  <si>
+    <t>65645150865168448896</t>
+  </si>
+  <si>
+    <t>26551681807651415636</t>
+  </si>
+  <si>
+    <t>ES3520960043043554600000</t>
+  </si>
+  <si>
+    <t>ES7832145464138452163421</t>
+  </si>
+  <si>
+    <t>DK7331645124473461205164</t>
+  </si>
+  <si>
+    <t>ES8265614874165615445616</t>
+  </si>
+  <si>
+    <t>RO8832569523016220165156</t>
+  </si>
+  <si>
+    <t>DE7424561937521546497521</t>
+  </si>
+  <si>
+    <t>MC6436520125638451012515</t>
+  </si>
+  <si>
+    <t>GR9420125003305201112544</t>
+  </si>
+  <si>
+    <t>ES2821651484690980008984</t>
+  </si>
+  <si>
+    <t>FI5620960043043554600000</t>
+  </si>
+  <si>
+    <t>ES7921564975243245467995</t>
+  </si>
+  <si>
+    <t>LT8032566221522587754554</t>
+  </si>
+  <si>
+    <t>EE2023215465315456411515</t>
+  </si>
+  <si>
+    <t>BE9400750184310702510000</t>
+  </si>
+  <si>
+    <t>ES0721584976902154655487</t>
+  </si>
+  <si>
+    <t>SM2125894363475485700145</t>
+  </si>
+  <si>
+    <t>ES9596431245118150005156</t>
+  </si>
+  <si>
+    <t>AT6825030000114574745458</t>
+  </si>
+  <si>
+    <t>IT8915953684811254695203</t>
+  </si>
+  <si>
+    <t>ES9020960043023096200000</t>
+  </si>
+  <si>
+    <t>DK5800750184310702510000</t>
+  </si>
+  <si>
+    <t>ES5023455254943263234457</t>
+  </si>
+  <si>
+    <t>GR4920910936583000000000</t>
+  </si>
+  <si>
+    <t>ES3720960043032159000000</t>
+  </si>
+  <si>
+    <t>DE5512669681115112121210</t>
+  </si>
+  <si>
+    <t>ES2956187775315550000651</t>
+  </si>
+  <si>
+    <t>ES0425516848021156151054</t>
+  </si>
+  <si>
+    <t>PT5764578946740051516490</t>
+  </si>
+  <si>
+    <t>ES4534698752714600549403</t>
+  </si>
+  <si>
+    <t>ES2766649444162310000255</t>
+  </si>
+  <si>
+    <t>FR5623185484465641685100</t>
+  </si>
+  <si>
+    <t>ES4352198484752100515144</t>
+  </si>
+  <si>
+    <t>CZ9536250012804785523365</t>
+  </si>
+  <si>
+    <t>AT3122515651915640081000</t>
+  </si>
+  <si>
+    <t>DE5021508149175421346497</t>
+  </si>
+  <si>
+    <t>DE6721346154503164978451</t>
+  </si>
+  <si>
+    <t>ES7225187786311225455548</t>
+  </si>
+  <si>
+    <t>ES4723164897642213030615</t>
+  </si>
+  <si>
+    <t>ES2396536214865214585214</t>
+  </si>
+  <si>
+    <t>ES6885461325251978750005</t>
+  </si>
+  <si>
+    <t>FI5024587946032003165464</t>
+  </si>
+  <si>
+    <t>ES5020960043073071400000</t>
+  </si>
+  <si>
+    <t>ES8220960043042158800000</t>
+  </si>
+  <si>
+    <t>ES7521654587985156484454</t>
+  </si>
+  <si>
+    <t>ES3251651681961210656510</t>
+  </si>
+  <si>
+    <t>ES5566552211148855332200</t>
+  </si>
+  <si>
+    <t>GB9720910936583000000000</t>
+  </si>
+  <si>
+    <t>DE9301821135910205540000</t>
+  </si>
+  <si>
+    <t>DE7822631245526916432102</t>
+  </si>
+  <si>
+    <t>ES2120960043043075700000</t>
+  </si>
+  <si>
+    <t>SM7325635478321002541225</t>
+  </si>
+  <si>
+    <t>ES6832154697195423121000</t>
+  </si>
+  <si>
+    <t>GR3836521452736500658485</t>
+  </si>
+  <si>
+    <t>GB5520008521528775113366</t>
+  </si>
+  <si>
+    <t>ES6851651487910005118185</t>
+  </si>
+  <si>
+    <t>ES9001826530120201560000</t>
+  </si>
+  <si>
+    <t>ES9021651651812511133551</t>
+  </si>
+  <si>
+    <t>ES8020960043033000100000</t>
+  </si>
+  <si>
+    <t>GB0836585214290025478551</t>
+  </si>
+  <si>
+    <t>ES9012548523465214585214</t>
+  </si>
+  <si>
+    <t>ES6931624561042546920007</t>
+  </si>
+  <si>
+    <t>ES1436154231712500312566</t>
+  </si>
+  <si>
+    <t>ES8244875664127231645789</t>
+  </si>
+  <si>
+    <t>ES7920960031442124800000</t>
+  </si>
+  <si>
+    <t>ES1633620012937852100256</t>
+  </si>
+  <si>
+    <t>ES1933218885441445121022</t>
+  </si>
+  <si>
+    <t>ES8462581542713690044508</t>
+  </si>
+  <si>
+    <t>ES3925165151118666365100</t>
+  </si>
+  <si>
+    <t>PT3536952365020014425254</t>
+  </si>
+  <si>
+    <t>ES9565168874641561561500</t>
+  </si>
+  <si>
+    <t>ES3220960583831234500000</t>
+  </si>
+  <si>
+    <t>ES7221416325811510005514</t>
+  </si>
+  <si>
+    <t>LU0932628484504115151115</t>
+  </si>
+  <si>
+    <t>ES2220960056133231500000</t>
+  </si>
+  <si>
+    <t>ES8163516541828944000984</t>
+  </si>
+  <si>
+    <t>ES6223658965274585223202</t>
+  </si>
+  <si>
+    <t>FI6132658012367712548745</t>
+  </si>
+  <si>
+    <t>ES7223652365142254222000</t>
+  </si>
+  <si>
+    <t>FR3820012541150023365233</t>
+  </si>
+  <si>
+    <t>ES9232584216971684051000</t>
+  </si>
+  <si>
+    <t>ES6855065688761051056105</t>
+  </si>
+  <si>
+    <t>ES7395485212315484010000</t>
+  </si>
+  <si>
+    <t>LT9321856333126985542360</t>
+  </si>
+  <si>
+    <t>ES5736245978133245679001</t>
+  </si>
+  <si>
+    <t>ES7631245164156597845124</t>
+  </si>
+  <si>
+    <t>SM4423221158252545471411</t>
+  </si>
+  <si>
+    <t>SE6832574512085411002255</t>
+  </si>
+  <si>
+    <t>ES4420960043013468900000</t>
+  </si>
+  <si>
+    <t>ES5631215643855060225021</t>
+  </si>
+  <si>
+    <t>AT3285550564726165145610</t>
+  </si>
+  <si>
+    <t>ES1665165654918886005001</t>
+  </si>
+  <si>
+    <t>ES7426221011628048788896</t>
+  </si>
+  <si>
+    <t>ES9712548521518742146695</t>
+  </si>
+  <si>
+    <t>IE6851556584221251000254</t>
+  </si>
+  <si>
+    <t>DK9032541112811220000588</t>
+  </si>
+  <si>
+    <t>LT9362541122421110105611</t>
+  </si>
+  <si>
+    <t>AT8365645150865168448896</t>
+  </si>
+  <si>
+    <t>IT3526551681807651415636</t>
+  </si>
+  <si>
+    <t>HU2399558741836555551120</t>
+  </si>
+  <si>
+    <t>AM00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>AAM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>AAB00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>ACD00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>ABG00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>AGM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>ARI00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>AMG00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>AFR00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>ALA00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>ALA01@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>AGR00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>ADS00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>BV00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>BBV00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>BBA00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>BAM00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>BCA00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>BBL00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>BGA00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>BL00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>BBL00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>BS00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>BGA00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>BGD00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>CIM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>CQC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>CVM00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>CPF00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>CCI00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>CFS00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>CJE00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>CGG00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>CPE00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>CSM00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>CLM00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>CCJ00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>CPJ00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>CCB00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>CAN00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>CCM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>CCM01@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>DAM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>DFC00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>DLC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>EAH00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>EK00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>ES00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>FPB00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>FAA00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>FFI00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>FFD00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>FME00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>FLC00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>GAR00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>GPL00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>GGE00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>GPL00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>GFD00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>GSA00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>GIF00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>GAC00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>GRA00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>GPL01@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>GMN00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>GLJ00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>HDD00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>LDR00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>LRF00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>MCN00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>MBO00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>MFJ00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>MGJ00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>MOH00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>MVP00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>MMC00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>MBM00@TecnoProyectSL.es</t>
+  </si>
+  <si>
+    <t>NBB00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>OSP00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>ODP00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>OFJ00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>PDC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>PGC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>PPV00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>PAC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>PMA00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>PGR00@PBlankSA.es</t>
+  </si>
+  <si>
+    <t>RFI00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>RAF00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>RDF00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>RGT00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>RLC00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>SBC00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>SAS00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>SHE00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>SLD00@Asoftware.es</t>
+  </si>
+  <si>
+    <t>SFH00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>SGS00@APhonSA.es</t>
+  </si>
+  <si>
+    <t>SSG00@TecnoLeonSL.es</t>
+  </si>
+  <si>
+    <t>SSS00@TecnoLeonSL.es</t>
   </si>
 </sst>
 </file>
@@ -1491,16 +2109,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1528,7 +2138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1540,9 +2150,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1911,25 +2518,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="8" max="8" style="2" width="11.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="5" width="28.88671875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="4" width="7.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="8.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="8" max="8" style="2" width="11.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="5" width="28.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="4" width="7.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +2577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1992,18 +2599,23 @@
       <c r="H2" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="I2" t="s">
+        <v>591</v>
+      </c>
       <c r="J2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>492</v>
+      </c>
       <c r="M2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>381</v>
       </c>
@@ -2028,18 +2640,23 @@
       <c r="H3" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="I3" t="s">
+        <v>592</v>
+      </c>
       <c r="J3" s="5" t="s">
         <v>388</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="s">
+        <v>493</v>
+      </c>
       <c r="M3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>387</v>
       </c>
@@ -2064,18 +2681,23 @@
       <c r="H4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="I4" t="s">
+        <v>593</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>389</v>
       </c>
       <c r="K4" t="s">
         <v>90</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>494</v>
+      </c>
       <c r="M4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>387</v>
       </c>
@@ -2100,18 +2722,23 @@
       <c r="H5" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="I5" t="s">
+        <v>594</v>
+      </c>
       <c r="J5" s="5" t="s">
         <v>390</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>495</v>
+      </c>
       <c r="M5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2136,18 +2763,23 @@
       <c r="H6" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="I6" t="s">
+        <v>595</v>
+      </c>
       <c r="J6" s="5" t="s">
         <v>391</v>
       </c>
       <c r="K6" t="s">
         <v>374</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>496</v>
+      </c>
       <c r="M6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>381</v>
       </c>
@@ -2172,18 +2804,23 @@
       <c r="H7" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="I7" t="s">
+        <v>596</v>
+      </c>
       <c r="J7" s="5" t="s">
         <v>392</v>
       </c>
       <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>497</v>
+      </c>
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2208,22 +2845,27 @@
       <c r="H8" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="I8" t="s">
+        <v>597</v>
+      </c>
       <c r="J8" s="5" t="s">
         <v>393</v>
       </c>
       <c r="K8" t="s">
         <v>367</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>498</v>
+      </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -2248,18 +2890,23 @@
       <c r="H10" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="I10" t="s">
+        <v>598</v>
+      </c>
       <c r="J10" s="5" t="s">
         <v>394</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
       </c>
-      <c r="L10"/>
+      <c r="L10" t="s">
+        <v>499</v>
+      </c>
       <c r="M10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>383</v>
       </c>
@@ -2284,18 +2931,23 @@
       <c r="H11" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="I11" t="s">
+        <v>599</v>
+      </c>
       <c r="J11" s="5" t="s">
         <v>395</v>
       </c>
       <c r="K11" t="s">
         <v>85</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>500</v>
+      </c>
       <c r="M11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>381</v>
       </c>
@@ -2320,18 +2972,23 @@
       <c r="H12" s="3" t="s">
         <v>396</v>
       </c>
+      <c r="I12" t="s">
+        <v>600</v>
+      </c>
       <c r="J12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>89</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>501</v>
+      </c>
       <c r="M12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>381</v>
       </c>
@@ -2356,18 +3013,23 @@
       <c r="H13" s="2" t="s">
         <v>396</v>
       </c>
+      <c r="I13" t="s">
+        <v>601</v>
+      </c>
       <c r="J13" s="5" t="s">
         <v>397</v>
       </c>
       <c r="K13" t="s">
         <v>85</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>502</v>
+      </c>
       <c r="M13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>385</v>
       </c>
@@ -2392,18 +3054,23 @@
       <c r="H14" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="I14" t="s">
+        <v>602</v>
+      </c>
       <c r="J14" s="5" t="s">
         <v>398</v>
       </c>
       <c r="K14" t="s">
         <v>371</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" t="s">
+        <v>503</v>
+      </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>385</v>
       </c>
@@ -2428,18 +3095,23 @@
       <c r="H15" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="I15" t="s">
+        <v>603</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>399</v>
       </c>
       <c r="K15" t="s">
         <v>377</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>504</v>
+      </c>
       <c r="M15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>381</v>
       </c>
@@ -2461,18 +3133,23 @@
       <c r="H16" s="3" t="s">
         <v>359</v>
       </c>
+      <c r="I16" t="s">
+        <v>604</v>
+      </c>
       <c r="J16" s="5" t="s">
         <v>400</v>
       </c>
       <c r="K16" t="s">
         <v>88</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>505</v>
+      </c>
       <c r="M16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>381</v>
       </c>
@@ -2497,18 +3174,23 @@
       <c r="H17" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="I17" t="s">
+        <v>605</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>401</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>506</v>
+      </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>383</v>
       </c>
@@ -2533,18 +3215,23 @@
       <c r="H18" s="2" t="s">
         <v>330</v>
       </c>
+      <c r="I18" t="s">
+        <v>606</v>
+      </c>
       <c r="J18" s="5" t="s">
         <v>402</v>
       </c>
       <c r="K18" t="s">
         <v>376</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>507</v>
+      </c>
       <c r="M18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>383</v>
       </c>
@@ -2569,18 +3256,23 @@
       <c r="H19" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="I19" t="s">
+        <v>607</v>
+      </c>
       <c r="J19" s="5" t="s">
         <v>403</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>508</v>
+      </c>
       <c r="M19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>383</v>
       </c>
@@ -2605,18 +3297,23 @@
       <c r="H20" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="I20" t="s">
+        <v>608</v>
+      </c>
       <c r="J20" s="5" t="s">
         <v>404</v>
       </c>
       <c r="K20" t="s">
         <v>368</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>509</v>
+      </c>
       <c r="M20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>383</v>
       </c>
@@ -2641,18 +3338,23 @@
       <c r="H21" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="I21" t="s">
+        <v>609</v>
+      </c>
       <c r="J21" s="5" t="s">
         <v>405</v>
       </c>
       <c r="K21" t="s">
         <v>370</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>510</v>
+      </c>
       <c r="M21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>381</v>
       </c>
@@ -2677,18 +3379,23 @@
       <c r="H22" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="I22" t="s">
+        <v>610</v>
+      </c>
       <c r="J22" s="5" t="s">
         <v>406</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>511</v>
+      </c>
       <c r="M22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -2710,18 +3417,23 @@
       <c r="H23" s="3" t="s">
         <v>407</v>
       </c>
+      <c r="I23" t="s">
+        <v>611</v>
+      </c>
       <c r="J23" s="5" t="s">
         <v>400</v>
       </c>
       <c r="K23" t="s">
         <v>90</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>512</v>
+      </c>
       <c r="M23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2746,18 +3458,23 @@
       <c r="H24" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="I24" t="s">
+        <v>612</v>
+      </c>
       <c r="J24" s="5" t="s">
         <v>408</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>513</v>
+      </c>
       <c r="M24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>381</v>
       </c>
@@ -2779,18 +3496,23 @@
       <c r="H25" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="I25" t="s">
+        <v>613</v>
+      </c>
       <c r="J25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K25" t="s">
         <v>87</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>514</v>
+      </c>
       <c r="M25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2815,18 +3537,23 @@
       <c r="H26" s="3" t="s">
         <v>409</v>
       </c>
+      <c r="I26" t="s">
+        <v>614</v>
+      </c>
       <c r="J26" s="5" t="s">
         <v>410</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>515</v>
+      </c>
       <c r="M26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>387</v>
       </c>
@@ -2851,22 +3578,27 @@
       <c r="H27" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="I27" t="s">
+        <v>615</v>
+      </c>
       <c r="J27" s="5" t="s">
         <v>411</v>
       </c>
       <c r="K27" t="s">
         <v>86</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>516</v>
+      </c>
       <c r="M27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="L28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>381</v>
       </c>
@@ -2891,18 +3623,23 @@
       <c r="H29" s="2" t="s">
         <v>300</v>
       </c>
+      <c r="I29" t="s">
+        <v>616</v>
+      </c>
       <c r="J29" s="5" t="s">
         <v>412</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
       </c>
-      <c r="L29"/>
+      <c r="L29" t="s">
+        <v>517</v>
+      </c>
       <c r="M29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -2927,18 +3664,23 @@
       <c r="H30" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="I30" t="s">
+        <v>617</v>
+      </c>
       <c r="J30" s="5" t="s">
         <v>413</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
       </c>
-      <c r="L30"/>
+      <c r="L30" t="s">
+        <v>518</v>
+      </c>
       <c r="M30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>383</v>
       </c>
@@ -2963,18 +3705,23 @@
       <c r="H31" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="I31" t="s">
+        <v>618</v>
+      </c>
       <c r="J31" s="5" t="s">
         <v>414</v>
       </c>
       <c r="K31" t="s">
         <v>380</v>
       </c>
-      <c r="L31"/>
+      <c r="L31" t="s">
+        <v>519</v>
+      </c>
       <c r="M31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -2999,18 +3746,23 @@
       <c r="H32" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="I32" t="s">
+        <v>619</v>
+      </c>
       <c r="J32" s="5" t="s">
         <v>415</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
       </c>
-      <c r="L32"/>
+      <c r="L32" t="s">
+        <v>520</v>
+      </c>
       <c r="M32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>383</v>
       </c>
@@ -3035,18 +3787,23 @@
       <c r="H33" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="I33" t="s">
+        <v>620</v>
+      </c>
       <c r="J33" s="5" t="s">
         <v>416</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
       </c>
-      <c r="L33"/>
+      <c r="L33" t="s">
+        <v>521</v>
+      </c>
       <c r="M33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3071,18 +3828,23 @@
       <c r="H34" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="I34" t="s">
+        <v>621</v>
+      </c>
       <c r="J34" s="5" t="s">
         <v>417</v>
       </c>
       <c r="K34" t="s">
         <v>378</v>
       </c>
-      <c r="L34"/>
+      <c r="L34" t="s">
+        <v>522</v>
+      </c>
       <c r="M34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3107,18 +3869,23 @@
       <c r="H35" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="I35" t="s">
+        <v>622</v>
+      </c>
       <c r="J35" s="5" t="s">
         <v>418</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
       </c>
-      <c r="L35"/>
+      <c r="L35" t="s">
+        <v>523</v>
+      </c>
       <c r="M35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>385</v>
       </c>
@@ -3143,18 +3910,23 @@
       <c r="H36" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="I36" t="s">
+        <v>623</v>
+      </c>
       <c r="J36" s="5" t="s">
         <v>419</v>
       </c>
       <c r="K36" t="s">
         <v>373</v>
       </c>
-      <c r="L36"/>
+      <c r="L36" t="s">
+        <v>524</v>
+      </c>
       <c r="M36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>387</v>
       </c>
@@ -3179,18 +3951,23 @@
       <c r="H37" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="I37" t="s">
+        <v>624</v>
+      </c>
       <c r="J37" s="5" t="s">
         <v>420</v>
       </c>
       <c r="K37" t="s">
         <v>368</v>
       </c>
-      <c r="L37"/>
+      <c r="L37" t="s">
+        <v>525</v>
+      </c>
       <c r="M37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>383</v>
       </c>
@@ -3215,18 +3992,23 @@
       <c r="H38" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="I38" t="s">
+        <v>625</v>
+      </c>
       <c r="J38" s="5" t="s">
         <v>421</v>
       </c>
       <c r="K38" t="s">
         <v>86</v>
       </c>
-      <c r="L38"/>
+      <c r="L38" t="s">
+        <v>526</v>
+      </c>
       <c r="M38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3251,18 +4033,23 @@
       <c r="H39" s="2" t="s">
         <v>422</v>
       </c>
+      <c r="I39" t="s">
+        <v>626</v>
+      </c>
       <c r="J39" s="5" t="s">
         <v>423</v>
       </c>
       <c r="K39" t="s">
         <v>86</v>
       </c>
-      <c r="L39"/>
+      <c r="L39" t="s">
+        <v>527</v>
+      </c>
       <c r="M39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>383</v>
       </c>
@@ -3287,18 +4074,23 @@
       <c r="H40" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="I40" t="s">
+        <v>627</v>
+      </c>
       <c r="J40" s="5" t="s">
         <v>424</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
       </c>
-      <c r="L40"/>
+      <c r="L40" t="s">
+        <v>528</v>
+      </c>
       <c r="M40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>381</v>
       </c>
@@ -3323,18 +4115,23 @@
       <c r="H41" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="I41" t="s">
+        <v>628</v>
+      </c>
       <c r="J41" s="5" t="s">
         <v>425</v>
       </c>
       <c r="K41" t="s">
         <v>85</v>
       </c>
-      <c r="L41"/>
+      <c r="L41" t="s">
+        <v>529</v>
+      </c>
       <c r="M41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>381</v>
       </c>
@@ -3359,18 +4156,23 @@
       <c r="H42" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="I42" t="s">
+        <v>629</v>
+      </c>
       <c r="J42" s="5" t="s">
         <v>426</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
       </c>
-      <c r="L42"/>
+      <c r="L42" t="s">
+        <v>530</v>
+      </c>
       <c r="M42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>383</v>
       </c>
@@ -3395,18 +4197,23 @@
       <c r="H43" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="I43" t="s">
+        <v>630</v>
+      </c>
       <c r="J43" s="5" t="s">
         <v>427</v>
       </c>
       <c r="K43" t="s">
         <v>85</v>
       </c>
-      <c r="L43"/>
+      <c r="L43" t="s">
+        <v>531</v>
+      </c>
       <c r="M43" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>381</v>
       </c>
@@ -3431,18 +4238,23 @@
       <c r="H44" s="2" t="s">
         <v>348</v>
       </c>
+      <c r="I44" t="s">
+        <v>631</v>
+      </c>
       <c r="J44" s="5" t="s">
         <v>428</v>
       </c>
       <c r="K44" t="s">
         <v>89</v>
       </c>
-      <c r="L44"/>
+      <c r="L44" t="s">
+        <v>532</v>
+      </c>
       <c r="M44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>381</v>
       </c>
@@ -3467,18 +4279,23 @@
       <c r="H45" s="3" t="s">
         <v>429</v>
       </c>
+      <c r="I45" t="s">
+        <v>632</v>
+      </c>
       <c r="J45" s="5" t="s">
         <v>430</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
       </c>
-      <c r="L45"/>
+      <c r="L45" t="s">
+        <v>533</v>
+      </c>
       <c r="M45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>381</v>
       </c>
@@ -3503,18 +4320,23 @@
       <c r="H46" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="I46" t="s">
+        <v>633</v>
+      </c>
       <c r="J46" s="5" t="s">
         <v>431</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
       </c>
-      <c r="L46"/>
+      <c r="L46" t="s">
+        <v>534</v>
+      </c>
       <c r="M46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -3539,18 +4361,23 @@
       <c r="H47" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="I47" t="s">
+        <v>634</v>
+      </c>
       <c r="J47" s="5" t="s">
         <v>432</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
       </c>
-      <c r="L47"/>
+      <c r="L47" t="s">
+        <v>535</v>
+      </c>
       <c r="M47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>387</v>
       </c>
@@ -3575,18 +4402,23 @@
       <c r="H48" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="I48" t="s">
+        <v>635</v>
+      </c>
       <c r="J48" s="5" t="s">
         <v>433</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
       </c>
-      <c r="L48"/>
+      <c r="L48" t="s">
+        <v>536</v>
+      </c>
       <c r="M48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3611,18 +4443,23 @@
       <c r="H49" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="I49" t="s">
+        <v>636</v>
+      </c>
       <c r="J49" s="5" t="s">
         <v>434</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
       </c>
-      <c r="L49"/>
+      <c r="L49" t="s">
+        <v>537</v>
+      </c>
       <c r="M49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>381</v>
       </c>
@@ -3644,18 +4481,23 @@
       <c r="H50" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="I50" t="s">
+        <v>637</v>
+      </c>
       <c r="J50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K50" t="s">
         <v>91</v>
       </c>
-      <c r="L50"/>
+      <c r="L50" t="s">
+        <v>538</v>
+      </c>
       <c r="M50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>387</v>
       </c>
@@ -3677,18 +4519,23 @@
       <c r="H51" s="3" t="s">
         <v>436</v>
       </c>
+      <c r="I51" t="s">
+        <v>638</v>
+      </c>
       <c r="J51" s="5" t="s">
         <v>437</v>
       </c>
       <c r="K51" t="s">
         <v>86</v>
       </c>
-      <c r="L51"/>
+      <c r="L51" t="s">
+        <v>539</v>
+      </c>
       <c r="M51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>381</v>
       </c>
@@ -3713,18 +4560,23 @@
       <c r="H52" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="I52" t="s">
+        <v>639</v>
+      </c>
       <c r="J52" s="5" t="s">
         <v>438</v>
       </c>
       <c r="K52" t="s">
         <v>86</v>
       </c>
-      <c r="L52"/>
+      <c r="L52" t="s">
+        <v>540</v>
+      </c>
       <c r="M52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3749,18 +4601,23 @@
       <c r="H53" s="3" t="s">
         <v>439</v>
       </c>
+      <c r="I53" t="s">
+        <v>640</v>
+      </c>
       <c r="J53" s="5" t="s">
         <v>440</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
       </c>
-      <c r="L53"/>
+      <c r="L53" t="s">
+        <v>541</v>
+      </c>
       <c r="M53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3785,18 +4642,23 @@
       <c r="H54" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="I54" t="s">
+        <v>641</v>
+      </c>
       <c r="J54" s="5" t="s">
         <v>441</v>
       </c>
       <c r="K54" t="s">
         <v>376</v>
       </c>
-      <c r="L54"/>
+      <c r="L54" t="s">
+        <v>542</v>
+      </c>
       <c r="M54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>385</v>
       </c>
@@ -3821,18 +4683,23 @@
       <c r="H55" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="I55" t="s">
+        <v>642</v>
+      </c>
       <c r="J55" s="5" t="s">
         <v>442</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
       </c>
-      <c r="L55"/>
+      <c r="L55" t="s">
+        <v>543</v>
+      </c>
       <c r="M55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -3857,18 +4724,23 @@
       <c r="H56" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="I56" t="s">
+        <v>643</v>
+      </c>
       <c r="J56" s="5" t="s">
         <v>443</v>
       </c>
       <c r="K56" t="s">
         <v>87</v>
       </c>
-      <c r="L56"/>
+      <c r="L56" t="s">
+        <v>544</v>
+      </c>
       <c r="M56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>385</v>
       </c>
@@ -3893,18 +4765,23 @@
       <c r="H57" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="I57" t="s">
+        <v>644</v>
+      </c>
       <c r="J57" s="5" t="s">
         <v>444</v>
       </c>
       <c r="K57" t="s">
         <v>91</v>
       </c>
-      <c r="L57"/>
+      <c r="L57" t="s">
+        <v>545</v>
+      </c>
       <c r="M57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3929,22 +4806,27 @@
       <c r="H58" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="I58" t="s">
+        <v>645</v>
+      </c>
       <c r="J58" s="5" t="s">
         <v>445</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
       </c>
-      <c r="L58"/>
+      <c r="L58" t="s">
+        <v>546</v>
+      </c>
       <c r="M58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -3969,18 +4851,23 @@
       <c r="H60" s="3" t="s">
         <v>446</v>
       </c>
+      <c r="I60" t="s">
+        <v>646</v>
+      </c>
       <c r="J60" s="5" t="s">
         <v>79</v>
       </c>
       <c r="K60" t="s">
         <v>85</v>
       </c>
-      <c r="L60"/>
+      <c r="L60" t="s">
+        <v>547</v>
+      </c>
       <c r="M60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>387</v>
       </c>
@@ -4005,18 +4892,23 @@
       <c r="H61" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="I61" t="s">
+        <v>647</v>
+      </c>
       <c r="J61" s="5" t="s">
         <v>447</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
       </c>
-      <c r="L61"/>
+      <c r="L61" t="s">
+        <v>548</v>
+      </c>
       <c r="M61" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>381</v>
       </c>
@@ -4041,18 +4933,23 @@
       <c r="H62" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="I62" t="s">
+        <v>648</v>
+      </c>
       <c r="J62" s="5" t="s">
         <v>448</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
       </c>
-      <c r="L62"/>
+      <c r="L62" t="s">
+        <v>549</v>
+      </c>
       <c r="M62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -4077,18 +4974,23 @@
       <c r="H63" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="I63" t="s">
+        <v>649</v>
+      </c>
       <c r="J63" s="5" t="s">
         <v>449</v>
       </c>
       <c r="K63" t="s">
         <v>91</v>
       </c>
-      <c r="L63"/>
+      <c r="L63" t="s">
+        <v>550</v>
+      </c>
       <c r="M63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -4113,18 +5015,23 @@
       <c r="H64" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="I64" t="s">
+        <v>650</v>
+      </c>
       <c r="J64" s="5" t="s">
         <v>450</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
       </c>
-      <c r="L64"/>
+      <c r="L64" t="s">
+        <v>551</v>
+      </c>
       <c r="M64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4149,18 +5056,23 @@
       <c r="H65" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="I65" t="s">
+        <v>651</v>
+      </c>
       <c r="J65" s="5" t="s">
         <v>451</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
       </c>
-      <c r="L65"/>
+      <c r="L65" t="s">
+        <v>552</v>
+      </c>
       <c r="M65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>385</v>
       </c>
@@ -4185,18 +5097,23 @@
       <c r="H66" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="I66" t="s">
+        <v>652</v>
+      </c>
       <c r="J66" s="5" t="s">
         <v>452</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
       </c>
-      <c r="L66"/>
+      <c r="L66" t="s">
+        <v>553</v>
+      </c>
       <c r="M66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>381</v>
       </c>
@@ -4221,18 +5138,23 @@
       <c r="H67" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="I67" t="s">
+        <v>653</v>
+      </c>
       <c r="J67" s="5" t="s">
         <v>453</v>
       </c>
       <c r="K67" t="s">
         <v>85</v>
       </c>
-      <c r="L67"/>
+      <c r="L67" t="s">
+        <v>554</v>
+      </c>
       <c r="M67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>381</v>
       </c>
@@ -4257,18 +5179,23 @@
       <c r="H68" s="3" t="s">
         <v>435</v>
       </c>
+      <c r="I68" t="s">
+        <v>654</v>
+      </c>
       <c r="J68" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K68" t="s">
         <v>85</v>
       </c>
-      <c r="L68"/>
+      <c r="L68" t="s">
+        <v>555</v>
+      </c>
       <c r="M68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>383</v>
       </c>
@@ -4293,18 +5220,23 @@
       <c r="H69" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="I69" t="s">
+        <v>655</v>
+      </c>
       <c r="J69" s="5" t="s">
         <v>455</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
       </c>
-      <c r="L69"/>
+      <c r="L69" t="s">
+        <v>556</v>
+      </c>
       <c r="M69" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>385</v>
       </c>
@@ -4329,18 +5261,23 @@
       <c r="H70" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="I70" t="s">
+        <v>656</v>
+      </c>
       <c r="J70" s="5" t="s">
         <v>456</v>
       </c>
       <c r="K70" t="s">
         <v>85</v>
       </c>
-      <c r="L70"/>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
       <c r="M70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>387</v>
       </c>
@@ -4365,18 +5302,23 @@
       <c r="H71" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="I71" t="s">
+        <v>657</v>
+      </c>
       <c r="J71" s="5" t="s">
         <v>457</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
       </c>
-      <c r="L71"/>
+      <c r="L71" t="s">
+        <v>558</v>
+      </c>
       <c r="M71" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>383</v>
       </c>
@@ -4401,18 +5343,23 @@
       <c r="H72" s="2" t="s">
         <v>283</v>
       </c>
+      <c r="I72" t="s">
+        <v>658</v>
+      </c>
       <c r="J72" s="5" t="s">
         <v>458</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
       </c>
-      <c r="L72"/>
+      <c r="L72" t="s">
+        <v>559</v>
+      </c>
       <c r="M72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>381</v>
       </c>
@@ -4437,18 +5384,23 @@
       <c r="H73" s="3" t="s">
         <v>422</v>
       </c>
+      <c r="I73" t="s">
+        <v>659</v>
+      </c>
       <c r="J73" s="5" t="s">
         <v>448</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
       </c>
-      <c r="L73"/>
+      <c r="L73" t="s">
+        <v>549</v>
+      </c>
       <c r="M73" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>381</v>
       </c>
@@ -4473,18 +5425,23 @@
       <c r="H74" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="I74" t="s">
+        <v>660</v>
+      </c>
       <c r="J74" s="5" t="s">
         <v>459</v>
       </c>
       <c r="K74" t="s">
         <v>380</v>
       </c>
-      <c r="L74"/>
+      <c r="L74" t="s">
+        <v>560</v>
+      </c>
       <c r="M74" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>385</v>
       </c>
@@ -4509,18 +5466,23 @@
       <c r="H75" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="I75" t="s">
+        <v>661</v>
+      </c>
       <c r="J75" s="5" t="s">
         <v>460</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
       </c>
-      <c r="L75"/>
+      <c r="L75" t="s">
+        <v>561</v>
+      </c>
       <c r="M75" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>381</v>
       </c>
@@ -4545,18 +5507,23 @@
       <c r="H76" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="I76" t="s">
+        <v>662</v>
+      </c>
       <c r="J76" s="5" t="s">
         <v>461</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
       </c>
-      <c r="L76"/>
+      <c r="L76" t="s">
+        <v>562</v>
+      </c>
       <c r="M76" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>385</v>
       </c>
@@ -4581,18 +5548,23 @@
       <c r="H77" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="I77" t="s">
+        <v>663</v>
+      </c>
       <c r="J77" s="5" t="s">
         <v>462</v>
       </c>
       <c r="K77" t="s">
         <v>85</v>
       </c>
-      <c r="L77"/>
+      <c r="L77" t="s">
+        <v>563</v>
+      </c>
       <c r="M77" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4617,22 +5589,27 @@
       <c r="H78" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="I78" t="s">
+        <v>664</v>
+      </c>
       <c r="J78" s="5" t="s">
         <v>463</v>
       </c>
       <c r="K78" t="s">
         <v>372</v>
       </c>
-      <c r="L78"/>
+      <c r="L78" t="s">
+        <v>564</v>
+      </c>
       <c r="M78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -4655,17 +5632,23 @@
         <v>37</v>
       </c>
       <c r="H80" s="3"/>
+      <c r="I80" t="s">
+        <v>665</v>
+      </c>
       <c r="J80" s="5" t="s">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s">
         <v>85</v>
       </c>
+      <c r="L80" t="s">
+        <v>565</v>
+      </c>
       <c r="M80" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>385</v>
       </c>
@@ -4690,18 +5673,23 @@
       <c r="H81" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="I81" t="s">
+        <v>666</v>
+      </c>
       <c r="J81" s="5" t="s">
         <v>464</v>
       </c>
       <c r="K81" t="s">
         <v>85</v>
       </c>
-      <c r="L81"/>
+      <c r="L81" t="s">
+        <v>566</v>
+      </c>
       <c r="M81" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -4726,17 +5714,23 @@
       <c r="H82" s="2" t="s">
         <v>310</v>
       </c>
+      <c r="I82" t="s">
+        <v>667</v>
+      </c>
       <c r="J82" s="5" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="K82" t="s">
         <v>85</v>
       </c>
+      <c r="L82" t="s">
+        <v>567</v>
+      </c>
       <c r="M82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>387</v>
       </c>
@@ -4761,18 +5755,23 @@
       <c r="H83" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="I83" t="s">
+        <v>668</v>
+      </c>
       <c r="J83" s="5" t="s">
         <v>465</v>
       </c>
       <c r="K83" t="s">
         <v>89</v>
       </c>
-      <c r="L83"/>
+      <c r="L83" t="s">
+        <v>568</v>
+      </c>
       <c r="M83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>385</v>
       </c>
@@ -4797,18 +5796,23 @@
       <c r="H84" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="I84" t="s">
+        <v>669</v>
+      </c>
       <c r="J84" s="5" t="s">
         <v>466</v>
       </c>
       <c r="K84" t="s">
         <v>85</v>
       </c>
-      <c r="L84"/>
+      <c r="L84" t="s">
+        <v>569</v>
+      </c>
       <c r="M84" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>383</v>
       </c>
@@ -4830,17 +5834,23 @@
       <c r="G85" t="s">
         <v>291</v>
       </c>
+      <c r="I85" t="s">
+        <v>670</v>
+      </c>
       <c r="J85" s="5" t="s">
-        <v>365</v>
+        <v>487</v>
       </c>
       <c r="K85" t="s">
         <v>378</v>
       </c>
+      <c r="L85" t="s">
+        <v>570</v>
+      </c>
       <c r="M85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -4865,18 +5875,23 @@
       <c r="H86" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="I86" t="s">
+        <v>671</v>
+      </c>
       <c r="J86" s="5" t="s">
         <v>467</v>
       </c>
       <c r="K86" t="s">
         <v>85</v>
       </c>
-      <c r="L86"/>
+      <c r="L86" t="s">
+        <v>571</v>
+      </c>
       <c r="M86" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -4901,18 +5916,23 @@
       <c r="H87" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="I87" t="s">
+        <v>672</v>
+      </c>
       <c r="J87" s="5" t="s">
         <v>468</v>
       </c>
       <c r="K87" t="s">
         <v>85</v>
       </c>
-      <c r="L87"/>
+      <c r="L87" t="s">
+        <v>572</v>
+      </c>
       <c r="M87" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -4937,18 +5957,23 @@
       <c r="H88" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="I88" t="s">
+        <v>673</v>
+      </c>
       <c r="J88" s="5" t="s">
         <v>469</v>
       </c>
       <c r="K88" t="s">
         <v>85</v>
       </c>
-      <c r="L88"/>
+      <c r="L88" t="s">
+        <v>573</v>
+      </c>
       <c r="M88" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -4973,18 +5998,23 @@
       <c r="H89" s="2" t="s">
         <v>259</v>
       </c>
+      <c r="I89" t="s">
+        <v>674</v>
+      </c>
       <c r="J89" s="5" t="s">
         <v>470</v>
       </c>
       <c r="K89" t="s">
         <v>371</v>
       </c>
-      <c r="L89"/>
+      <c r="L89" t="s">
+        <v>574</v>
+      </c>
       <c r="M89" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>387</v>
       </c>
@@ -5009,18 +6039,23 @@
       <c r="H90" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="I90" t="s">
+        <v>675</v>
+      </c>
       <c r="J90" s="5" t="s">
         <v>471</v>
       </c>
       <c r="K90" t="s">
         <v>85</v>
       </c>
-      <c r="L90"/>
+      <c r="L90" t="s">
+        <v>575</v>
+      </c>
       <c r="M90" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>387</v>
       </c>
@@ -5045,18 +6080,23 @@
       <c r="H91" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="I91" t="s">
+        <v>676</v>
+      </c>
       <c r="J91" s="5" t="s">
         <v>472</v>
       </c>
       <c r="K91" t="s">
         <v>85</v>
       </c>
-      <c r="L91"/>
+      <c r="L91" t="s">
+        <v>576</v>
+      </c>
       <c r="M91" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>383</v>
       </c>
@@ -5081,18 +6121,23 @@
       <c r="H92" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I92" t="s">
+        <v>677</v>
+      </c>
       <c r="J92" s="5" t="s">
         <v>473</v>
       </c>
       <c r="K92" t="s">
         <v>376</v>
       </c>
-      <c r="L92"/>
+      <c r="L92" t="s">
+        <v>577</v>
+      </c>
       <c r="M92" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5117,18 +6162,23 @@
       <c r="H93" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="I93" t="s">
+        <v>678</v>
+      </c>
       <c r="J93" s="5" t="s">
         <v>474</v>
       </c>
       <c r="K93" t="s">
         <v>375</v>
       </c>
-      <c r="L93"/>
+      <c r="L93" t="s">
+        <v>578</v>
+      </c>
       <c r="M93" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>82</v>
       </c>
@@ -5153,18 +6203,23 @@
       <c r="H94" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="I94" t="s">
+        <v>679</v>
+      </c>
       <c r="J94" s="5" t="s">
         <v>475</v>
       </c>
       <c r="K94" t="s">
         <v>85</v>
       </c>
-      <c r="L94"/>
+      <c r="L94" t="s">
+        <v>579</v>
+      </c>
       <c r="M94" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5189,18 +6244,23 @@
       <c r="H95" s="2" t="s">
         <v>476</v>
       </c>
+      <c r="I95" t="s">
+        <v>680</v>
+      </c>
       <c r="J95" s="5" t="s">
         <v>477</v>
       </c>
       <c r="K95" t="s">
         <v>85</v>
       </c>
-      <c r="L95"/>
+      <c r="L95" t="s">
+        <v>580</v>
+      </c>
       <c r="M95" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5225,18 +6285,23 @@
       <c r="H96" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="I96" t="s">
+        <v>681</v>
+      </c>
       <c r="J96" s="5" t="s">
         <v>479</v>
       </c>
       <c r="K96" t="s">
         <v>368</v>
       </c>
-      <c r="L96"/>
+      <c r="L96" t="s">
+        <v>581</v>
+      </c>
       <c r="M96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>385</v>
       </c>
@@ -5261,18 +6326,23 @@
       <c r="H97" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="I97" t="s">
+        <v>682</v>
+      </c>
       <c r="J97" s="5" t="s">
         <v>480</v>
       </c>
       <c r="K97" t="s">
         <v>85</v>
       </c>
-      <c r="L97"/>
+      <c r="L97" t="s">
+        <v>582</v>
+      </c>
       <c r="M97" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>387</v>
       </c>
@@ -5297,18 +6367,23 @@
       <c r="H98" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="I98" t="s">
+        <v>683</v>
+      </c>
       <c r="J98" s="5" t="s">
         <v>481</v>
       </c>
       <c r="K98" t="s">
         <v>85</v>
       </c>
-      <c r="L98"/>
+      <c r="L98" t="s">
+        <v>583</v>
+      </c>
       <c r="M98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>387</v>
       </c>
@@ -5333,22 +6408,27 @@
       <c r="H99" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="I99" t="s">
+        <v>684</v>
+      </c>
       <c r="J99" s="5" t="s">
         <v>482</v>
       </c>
       <c r="K99" t="s">
         <v>85</v>
       </c>
-      <c r="L99"/>
+      <c r="L99" t="s">
+        <v>584</v>
+      </c>
       <c r="M99" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="L100"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>387</v>
       </c>
@@ -5373,17 +6453,23 @@
       <c r="H101" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="I101" t="s">
+        <v>685</v>
+      </c>
       <c r="J101" s="5" t="s">
-        <v>361</v>
+        <v>488</v>
       </c>
       <c r="K101" t="s">
         <v>369</v>
       </c>
+      <c r="L101" t="s">
+        <v>585</v>
+      </c>
       <c r="M101" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>387</v>
       </c>
@@ -5408,18 +6494,23 @@
       <c r="H102" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="I102" t="s">
+        <v>686</v>
+      </c>
       <c r="J102" s="5" t="s">
         <v>483</v>
       </c>
       <c r="K102" t="s">
         <v>90</v>
       </c>
-      <c r="L102"/>
+      <c r="L102" t="s">
+        <v>586</v>
+      </c>
       <c r="M102" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -5444,17 +6535,23 @@
       <c r="H103" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="I103" t="s">
+        <v>687</v>
+      </c>
       <c r="J103" s="5" t="s">
-        <v>363</v>
+        <v>489</v>
       </c>
       <c r="K103" t="s">
         <v>371</v>
       </c>
+      <c r="L103" t="s">
+        <v>587</v>
+      </c>
       <c r="M103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>385</v>
       </c>
@@ -5479,17 +6576,23 @@
       <c r="H104" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="I104" t="s">
+        <v>688</v>
+      </c>
       <c r="J104" s="5" t="s">
-        <v>364</v>
+        <v>490</v>
       </c>
       <c r="K104" t="s">
         <v>368</v>
       </c>
+      <c r="L104" t="s">
+        <v>588</v>
+      </c>
       <c r="M104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5514,17 +6617,23 @@
       <c r="H105" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="I105" t="s">
+        <v>689</v>
+      </c>
       <c r="J105" s="5" t="s">
-        <v>362</v>
+        <v>491</v>
       </c>
       <c r="K105" t="s">
         <v>370</v>
       </c>
+      <c r="L105" t="s">
+        <v>589</v>
+      </c>
       <c r="M105" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5549,23 +6658,28 @@
       <c r="H106" s="2" t="s">
         <v>273</v>
       </c>
+      <c r="I106" t="s">
+        <v>690</v>
+      </c>
       <c r="J106" s="5" t="s">
         <v>484</v>
       </c>
       <c r="K106" t="s">
         <v>379</v>
       </c>
-      <c r="L106"/>
+      <c r="L106" t="s">
+        <v>590</v>
+      </c>
       <c r="M106" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:L106">
+  <sortState ref="F2:L106">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5582,16 +6696,16 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="44.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5602,7 +6716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -5613,7 +6727,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -5624,7 +6738,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5635,7 +6749,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -5646,7 +6760,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5657,7 +6771,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -5668,7 +6782,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5679,7 +6793,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5690,7 +6804,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5701,7 +6815,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -5712,7 +6826,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5723,7 +6837,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5734,7 +6848,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -5745,7 +6859,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -5769,12 +6883,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.5546875" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="20.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5782,7 +6896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12000</v>
       </c>
@@ -5790,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13000</v>
       </c>
@@ -5798,7 +6912,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14000</v>
       </c>
@@ -5806,7 +6920,7 @@
         <v>6.22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15000</v>
       </c>
@@ -5814,7 +6928,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -5822,7 +6936,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17000</v>
       </c>
@@ -5830,7 +6944,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18000</v>
       </c>
@@ -5838,7 +6952,7 @@
         <v>11.02</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19000</v>
       </c>
@@ -5846,7 +6960,7 @@
         <v>11.62</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20000</v>
       </c>
@@ -5854,7 +6968,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21000</v>
       </c>
@@ -5862,7 +6976,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22000</v>
       </c>
@@ -5870,7 +6984,7 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23000</v>
       </c>
@@ -5878,7 +6992,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>24000</v>
       </c>
@@ -5886,7 +7000,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25000</v>
       </c>
@@ -5894,7 +7008,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>26000</v>
       </c>
@@ -5902,7 +7016,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>27000</v>
       </c>
@@ -5910,7 +7024,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28000</v>
       </c>
@@ -5918,7 +7032,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>29000</v>
       </c>
@@ -5926,7 +7040,7 @@
         <v>16.62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>30000</v>
       </c>
@@ -5934,7 +7048,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31000</v>
       </c>
@@ -5942,7 +7056,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>32000</v>
       </c>
@@ -5950,7 +7064,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>33000</v>
       </c>
@@ -5958,7 +7072,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>34000</v>
       </c>
@@ -5966,7 +7080,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35000</v>
       </c>
@@ -5974,7 +7088,7 @@
         <v>18.63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>36000</v>
       </c>
@@ -5982,7 +7096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>37000</v>
       </c>
@@ -5990,7 +7104,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>38000</v>
       </c>
@@ -5998,7 +7112,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39000</v>
       </c>
@@ -6006,7 +7120,7 @@
         <v>19.96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>40000</v>
       </c>
@@ -6014,7 +7128,7 @@
         <v>20.18</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>41000</v>
       </c>
@@ -6022,7 +7136,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>42000</v>
       </c>
@@ -6030,7 +7144,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>43000</v>
       </c>
@@ -6038,7 +7152,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>44000</v>
       </c>
@@ -6046,7 +7160,7 @@
         <v>21.45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>45000</v>
       </c>
@@ -6054,7 +7168,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>46000</v>
       </c>
@@ -6062,7 +7176,7 @@
         <v>22.02</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>47000</v>
       </c>
@@ -6070,7 +7184,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>48000</v>
       </c>
@@ -6078,7 +7192,7 @@
         <v>22.62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>49000</v>
       </c>
@@ -6086,7 +7200,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>50000</v>
       </c>
@@ -6094,7 +7208,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>51000</v>
       </c>
@@ -6102,7 +7216,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>52000</v>
       </c>
@@ -6110,7 +7224,7 @@
         <v>23.82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>53000</v>
       </c>
@@ -6118,7 +7232,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>54000</v>
       </c>
@@ -6126,7 +7240,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>55000</v>
       </c>
@@ -6134,7 +7248,7 @@
         <v>24.72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>56000</v>
       </c>
@@ -6142,7 +7256,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>57000</v>
       </c>
@@ -6150,7 +7264,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>58000</v>
       </c>
@@ -6158,7 +7272,7 @@
         <v>25.62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59000</v>
       </c>
@@ -6166,7 +7280,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>60000</v>
       </c>
@@ -6187,13 +7301,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -6201,7 +7315,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -6209,7 +7323,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -6217,7 +7331,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -6225,7 +7339,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -6233,7 +7347,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -6241,7 +7355,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -6249,7 +7363,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -6270,13 +7384,13 @@
       <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
@@ -6284,7 +7398,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6292,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6300,7 +7414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6308,7 +7422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6316,7 +7430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6324,7 +7438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6332,7 +7446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6340,7 +7454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6348,7 +7462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6356,7 +7470,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6364,7 +7478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6372,7 +7486,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6380,7 +7494,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6388,7 +7502,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6396,7 +7510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6404,7 +7518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6412,7 +7526,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6420,7 +7534,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>

--- a/src/resources/SistemasInformacionII.xlsx
+++ b/src/resources/SistemasInformacionII.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="691">
   <si>
     <t>Nombre</t>
   </si>
@@ -2524,12 +2524,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="17.7109375" collapsed="true"/>
     <col min="8" max="8" style="2" width="11.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.7109375" collapsed="true"/>
     <col min="10" max="10" customWidth="true" style="5" width="28.85546875" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="4" width="7.5703125" collapsed="true"/>
@@ -6885,7 +6885,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="20.5703125" collapsed="false"/>
+    <col min="1" max="2" customWidth="true" width="20.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7303,8 +7303,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="38.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7386,8 +7386,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
